--- a/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,598 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hollensbe, Khazanchi &amp; Masterson_2008_AMJ_How do I assess if my Supervisor and Organization are fair.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P7_Hollensbe, Khazanchi &amp; Masterson_2008_AMJ_How do I assess if my Supervisor and Organization are fair.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F1_P7_Hollensbe, Khazanchi &amp; Masterson_2008_AMJ_How do I assess if my Supervisor and Organization are fair.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P6_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F2_P6_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F2_P7_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F2_P7_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F3_P8_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F3_P8_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F4_P8_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F4_P8_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F6_P11_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F6_P11_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F6_P12_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F6_P12_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F7_P14_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F7_P14_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F8_P14_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F8_P14_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F9_P15_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F9_P15_Islam, Zyphur &amp; Boje_2008_OrgStudies_Carnival and Spectacle in Krew de Vieux.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F2_P19_Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F2_P19_Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>O'Mahony &amp; Bechky_2008_ASQ_Boundary Organizations enabling Collaboration among Unexpected Allies.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P27_O'Mahony &amp; Bechky_2008_ASQ_Boundary Organizations enabling Collaboration among Unexpected Allies.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F1_P27_O'Mahony &amp; Bechky_2008_ASQ_Boundary Organizations enabling Collaboration among Unexpected Allies.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F1_P10_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F1_P10_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F2_P11_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F2_P11_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F3_P12_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E16" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F3_P12_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F4_P28_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F4_P28_Weber et al._2008_ASQ_Forage for Thought Mobilizing Codes in the movement for Grass-Fed Meat and Dairy Products.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,6 +1072,80 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Anteby_2008_OrgSci_Identity Incentives as an Emerging Form of Control.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F1_P7_Anteby_2008_OrgSci_Identity Incentives as an Emerging Form of Control.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F1_P7_Anteby_2008_OrgSci_Identity Incentives as an Emerging Form of Control.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F1_P3_Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2008/F1_P3_Jarzabkowski_2008_AMJ_Shaping Strategy as a Structuration Process.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
@@ -880,7 +880,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I12" t="b">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>timeline</t>
         </is>
       </c>
       <c r="I19" t="b">

--- a/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2008_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,11 +539,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -584,11 +573,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -621,11 +607,8 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -658,11 +641,8 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -695,11 +675,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -732,11 +709,8 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -769,11 +743,8 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -806,11 +777,8 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -843,11 +811,8 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -883,9 +848,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -994,9 +950,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1031,9 +984,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1068,9 +1018,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1102,11 +1049,8 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1141,9 +1085,6 @@
         <is>
           <t>timeline</t>
         </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
